--- a/unity-business-innovation/src/main/resources/template/rq.xlsx
+++ b/unity-business-innovation/src/main/resources/template/rq.xlsx
@@ -1,6 +1,200 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294F6A5-88A8-41AC-8476-18CF3222A7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>九月需求</t>
+  </si>
+  <si>
+    <t>企业名称</t>
+  </si>
+  <si>
+    <t>行业类别</t>
+  </si>
+  <si>
+    <t>企业规模</t>
+  </si>
+  <si>
+    <t>企业性质</t>
+  </si>
+  <si>
+    <t>企业简介</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -16,7 +210,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -28,7 +222,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -75,23 +269,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -127,23 +304,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,9 +446,498 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="82.5" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="257" max="257" width="27.5" customWidth="1"/>
+    <col min="258" max="260" width="9.1640625" customWidth="1"/>
+    <col min="261" max="262" width="27.5" customWidth="1"/>
+    <col min="263" max="264" width="13.75" customWidth="1"/>
+    <col min="265" max="265" width="82.5" customWidth="1"/>
+    <col min="266" max="266" width="16.5" customWidth="1"/>
+    <col min="513" max="513" width="27.5" customWidth="1"/>
+    <col min="514" max="516" width="9.1640625" customWidth="1"/>
+    <col min="517" max="518" width="27.5" customWidth="1"/>
+    <col min="519" max="520" width="13.75" customWidth="1"/>
+    <col min="521" max="521" width="82.5" customWidth="1"/>
+    <col min="522" max="522" width="16.5" customWidth="1"/>
+    <col min="769" max="769" width="27.5" customWidth="1"/>
+    <col min="770" max="772" width="9.1640625" customWidth="1"/>
+    <col min="773" max="774" width="27.5" customWidth="1"/>
+    <col min="775" max="776" width="13.75" customWidth="1"/>
+    <col min="777" max="777" width="82.5" customWidth="1"/>
+    <col min="778" max="778" width="16.5" customWidth="1"/>
+    <col min="1025" max="1025" width="27.5" customWidth="1"/>
+    <col min="1026" max="1028" width="9.1640625" customWidth="1"/>
+    <col min="1029" max="1030" width="27.5" customWidth="1"/>
+    <col min="1031" max="1032" width="13.75" customWidth="1"/>
+    <col min="1033" max="1033" width="82.5" customWidth="1"/>
+    <col min="1034" max="1034" width="16.5" customWidth="1"/>
+    <col min="1281" max="1281" width="27.5" customWidth="1"/>
+    <col min="1282" max="1284" width="9.1640625" customWidth="1"/>
+    <col min="1285" max="1286" width="27.5" customWidth="1"/>
+    <col min="1287" max="1288" width="13.75" customWidth="1"/>
+    <col min="1289" max="1289" width="82.5" customWidth="1"/>
+    <col min="1290" max="1290" width="16.5" customWidth="1"/>
+    <col min="1537" max="1537" width="27.5" customWidth="1"/>
+    <col min="1538" max="1540" width="9.1640625" customWidth="1"/>
+    <col min="1541" max="1542" width="27.5" customWidth="1"/>
+    <col min="1543" max="1544" width="13.75" customWidth="1"/>
+    <col min="1545" max="1545" width="82.5" customWidth="1"/>
+    <col min="1546" max="1546" width="16.5" customWidth="1"/>
+    <col min="1793" max="1793" width="27.5" customWidth="1"/>
+    <col min="1794" max="1796" width="9.1640625" customWidth="1"/>
+    <col min="1797" max="1798" width="27.5" customWidth="1"/>
+    <col min="1799" max="1800" width="13.75" customWidth="1"/>
+    <col min="1801" max="1801" width="82.5" customWidth="1"/>
+    <col min="1802" max="1802" width="16.5" customWidth="1"/>
+    <col min="2049" max="2049" width="27.5" customWidth="1"/>
+    <col min="2050" max="2052" width="9.1640625" customWidth="1"/>
+    <col min="2053" max="2054" width="27.5" customWidth="1"/>
+    <col min="2055" max="2056" width="13.75" customWidth="1"/>
+    <col min="2057" max="2057" width="82.5" customWidth="1"/>
+    <col min="2058" max="2058" width="16.5" customWidth="1"/>
+    <col min="2305" max="2305" width="27.5" customWidth="1"/>
+    <col min="2306" max="2308" width="9.1640625" customWidth="1"/>
+    <col min="2309" max="2310" width="27.5" customWidth="1"/>
+    <col min="2311" max="2312" width="13.75" customWidth="1"/>
+    <col min="2313" max="2313" width="82.5" customWidth="1"/>
+    <col min="2314" max="2314" width="16.5" customWidth="1"/>
+    <col min="2561" max="2561" width="27.5" customWidth="1"/>
+    <col min="2562" max="2564" width="9.1640625" customWidth="1"/>
+    <col min="2565" max="2566" width="27.5" customWidth="1"/>
+    <col min="2567" max="2568" width="13.75" customWidth="1"/>
+    <col min="2569" max="2569" width="82.5" customWidth="1"/>
+    <col min="2570" max="2570" width="16.5" customWidth="1"/>
+    <col min="2817" max="2817" width="27.5" customWidth="1"/>
+    <col min="2818" max="2820" width="9.1640625" customWidth="1"/>
+    <col min="2821" max="2822" width="27.5" customWidth="1"/>
+    <col min="2823" max="2824" width="13.75" customWidth="1"/>
+    <col min="2825" max="2825" width="82.5" customWidth="1"/>
+    <col min="2826" max="2826" width="16.5" customWidth="1"/>
+    <col min="3073" max="3073" width="27.5" customWidth="1"/>
+    <col min="3074" max="3076" width="9.1640625" customWidth="1"/>
+    <col min="3077" max="3078" width="27.5" customWidth="1"/>
+    <col min="3079" max="3080" width="13.75" customWidth="1"/>
+    <col min="3081" max="3081" width="82.5" customWidth="1"/>
+    <col min="3082" max="3082" width="16.5" customWidth="1"/>
+    <col min="3329" max="3329" width="27.5" customWidth="1"/>
+    <col min="3330" max="3332" width="9.1640625" customWidth="1"/>
+    <col min="3333" max="3334" width="27.5" customWidth="1"/>
+    <col min="3335" max="3336" width="13.75" customWidth="1"/>
+    <col min="3337" max="3337" width="82.5" customWidth="1"/>
+    <col min="3338" max="3338" width="16.5" customWidth="1"/>
+    <col min="3585" max="3585" width="27.5" customWidth="1"/>
+    <col min="3586" max="3588" width="9.1640625" customWidth="1"/>
+    <col min="3589" max="3590" width="27.5" customWidth="1"/>
+    <col min="3591" max="3592" width="13.75" customWidth="1"/>
+    <col min="3593" max="3593" width="82.5" customWidth="1"/>
+    <col min="3594" max="3594" width="16.5" customWidth="1"/>
+    <col min="3841" max="3841" width="27.5" customWidth="1"/>
+    <col min="3842" max="3844" width="9.1640625" customWidth="1"/>
+    <col min="3845" max="3846" width="27.5" customWidth="1"/>
+    <col min="3847" max="3848" width="13.75" customWidth="1"/>
+    <col min="3849" max="3849" width="82.5" customWidth="1"/>
+    <col min="3850" max="3850" width="16.5" customWidth="1"/>
+    <col min="4097" max="4097" width="27.5" customWidth="1"/>
+    <col min="4098" max="4100" width="9.1640625" customWidth="1"/>
+    <col min="4101" max="4102" width="27.5" customWidth="1"/>
+    <col min="4103" max="4104" width="13.75" customWidth="1"/>
+    <col min="4105" max="4105" width="82.5" customWidth="1"/>
+    <col min="4106" max="4106" width="16.5" customWidth="1"/>
+    <col min="4353" max="4353" width="27.5" customWidth="1"/>
+    <col min="4354" max="4356" width="9.1640625" customWidth="1"/>
+    <col min="4357" max="4358" width="27.5" customWidth="1"/>
+    <col min="4359" max="4360" width="13.75" customWidth="1"/>
+    <col min="4361" max="4361" width="82.5" customWidth="1"/>
+    <col min="4362" max="4362" width="16.5" customWidth="1"/>
+    <col min="4609" max="4609" width="27.5" customWidth="1"/>
+    <col min="4610" max="4612" width="9.1640625" customWidth="1"/>
+    <col min="4613" max="4614" width="27.5" customWidth="1"/>
+    <col min="4615" max="4616" width="13.75" customWidth="1"/>
+    <col min="4617" max="4617" width="82.5" customWidth="1"/>
+    <col min="4618" max="4618" width="16.5" customWidth="1"/>
+    <col min="4865" max="4865" width="27.5" customWidth="1"/>
+    <col min="4866" max="4868" width="9.1640625" customWidth="1"/>
+    <col min="4869" max="4870" width="27.5" customWidth="1"/>
+    <col min="4871" max="4872" width="13.75" customWidth="1"/>
+    <col min="4873" max="4873" width="82.5" customWidth="1"/>
+    <col min="4874" max="4874" width="16.5" customWidth="1"/>
+    <col min="5121" max="5121" width="27.5" customWidth="1"/>
+    <col min="5122" max="5124" width="9.1640625" customWidth="1"/>
+    <col min="5125" max="5126" width="27.5" customWidth="1"/>
+    <col min="5127" max="5128" width="13.75" customWidth="1"/>
+    <col min="5129" max="5129" width="82.5" customWidth="1"/>
+    <col min="5130" max="5130" width="16.5" customWidth="1"/>
+    <col min="5377" max="5377" width="27.5" customWidth="1"/>
+    <col min="5378" max="5380" width="9.1640625" customWidth="1"/>
+    <col min="5381" max="5382" width="27.5" customWidth="1"/>
+    <col min="5383" max="5384" width="13.75" customWidth="1"/>
+    <col min="5385" max="5385" width="82.5" customWidth="1"/>
+    <col min="5386" max="5386" width="16.5" customWidth="1"/>
+    <col min="5633" max="5633" width="27.5" customWidth="1"/>
+    <col min="5634" max="5636" width="9.1640625" customWidth="1"/>
+    <col min="5637" max="5638" width="27.5" customWidth="1"/>
+    <col min="5639" max="5640" width="13.75" customWidth="1"/>
+    <col min="5641" max="5641" width="82.5" customWidth="1"/>
+    <col min="5642" max="5642" width="16.5" customWidth="1"/>
+    <col min="5889" max="5889" width="27.5" customWidth="1"/>
+    <col min="5890" max="5892" width="9.1640625" customWidth="1"/>
+    <col min="5893" max="5894" width="27.5" customWidth="1"/>
+    <col min="5895" max="5896" width="13.75" customWidth="1"/>
+    <col min="5897" max="5897" width="82.5" customWidth="1"/>
+    <col min="5898" max="5898" width="16.5" customWidth="1"/>
+    <col min="6145" max="6145" width="27.5" customWidth="1"/>
+    <col min="6146" max="6148" width="9.1640625" customWidth="1"/>
+    <col min="6149" max="6150" width="27.5" customWidth="1"/>
+    <col min="6151" max="6152" width="13.75" customWidth="1"/>
+    <col min="6153" max="6153" width="82.5" customWidth="1"/>
+    <col min="6154" max="6154" width="16.5" customWidth="1"/>
+    <col min="6401" max="6401" width="27.5" customWidth="1"/>
+    <col min="6402" max="6404" width="9.1640625" customWidth="1"/>
+    <col min="6405" max="6406" width="27.5" customWidth="1"/>
+    <col min="6407" max="6408" width="13.75" customWidth="1"/>
+    <col min="6409" max="6409" width="82.5" customWidth="1"/>
+    <col min="6410" max="6410" width="16.5" customWidth="1"/>
+    <col min="6657" max="6657" width="27.5" customWidth="1"/>
+    <col min="6658" max="6660" width="9.1640625" customWidth="1"/>
+    <col min="6661" max="6662" width="27.5" customWidth="1"/>
+    <col min="6663" max="6664" width="13.75" customWidth="1"/>
+    <col min="6665" max="6665" width="82.5" customWidth="1"/>
+    <col min="6666" max="6666" width="16.5" customWidth="1"/>
+    <col min="6913" max="6913" width="27.5" customWidth="1"/>
+    <col min="6914" max="6916" width="9.1640625" customWidth="1"/>
+    <col min="6917" max="6918" width="27.5" customWidth="1"/>
+    <col min="6919" max="6920" width="13.75" customWidth="1"/>
+    <col min="6921" max="6921" width="82.5" customWidth="1"/>
+    <col min="6922" max="6922" width="16.5" customWidth="1"/>
+    <col min="7169" max="7169" width="27.5" customWidth="1"/>
+    <col min="7170" max="7172" width="9.1640625" customWidth="1"/>
+    <col min="7173" max="7174" width="27.5" customWidth="1"/>
+    <col min="7175" max="7176" width="13.75" customWidth="1"/>
+    <col min="7177" max="7177" width="82.5" customWidth="1"/>
+    <col min="7178" max="7178" width="16.5" customWidth="1"/>
+    <col min="7425" max="7425" width="27.5" customWidth="1"/>
+    <col min="7426" max="7428" width="9.1640625" customWidth="1"/>
+    <col min="7429" max="7430" width="27.5" customWidth="1"/>
+    <col min="7431" max="7432" width="13.75" customWidth="1"/>
+    <col min="7433" max="7433" width="82.5" customWidth="1"/>
+    <col min="7434" max="7434" width="16.5" customWidth="1"/>
+    <col min="7681" max="7681" width="27.5" customWidth="1"/>
+    <col min="7682" max="7684" width="9.1640625" customWidth="1"/>
+    <col min="7685" max="7686" width="27.5" customWidth="1"/>
+    <col min="7687" max="7688" width="13.75" customWidth="1"/>
+    <col min="7689" max="7689" width="82.5" customWidth="1"/>
+    <col min="7690" max="7690" width="16.5" customWidth="1"/>
+    <col min="7937" max="7937" width="27.5" customWidth="1"/>
+    <col min="7938" max="7940" width="9.1640625" customWidth="1"/>
+    <col min="7941" max="7942" width="27.5" customWidth="1"/>
+    <col min="7943" max="7944" width="13.75" customWidth="1"/>
+    <col min="7945" max="7945" width="82.5" customWidth="1"/>
+    <col min="7946" max="7946" width="16.5" customWidth="1"/>
+    <col min="8193" max="8193" width="27.5" customWidth="1"/>
+    <col min="8194" max="8196" width="9.1640625" customWidth="1"/>
+    <col min="8197" max="8198" width="27.5" customWidth="1"/>
+    <col min="8199" max="8200" width="13.75" customWidth="1"/>
+    <col min="8201" max="8201" width="82.5" customWidth="1"/>
+    <col min="8202" max="8202" width="16.5" customWidth="1"/>
+    <col min="8449" max="8449" width="27.5" customWidth="1"/>
+    <col min="8450" max="8452" width="9.1640625" customWidth="1"/>
+    <col min="8453" max="8454" width="27.5" customWidth="1"/>
+    <col min="8455" max="8456" width="13.75" customWidth="1"/>
+    <col min="8457" max="8457" width="82.5" customWidth="1"/>
+    <col min="8458" max="8458" width="16.5" customWidth="1"/>
+    <col min="8705" max="8705" width="27.5" customWidth="1"/>
+    <col min="8706" max="8708" width="9.1640625" customWidth="1"/>
+    <col min="8709" max="8710" width="27.5" customWidth="1"/>
+    <col min="8711" max="8712" width="13.75" customWidth="1"/>
+    <col min="8713" max="8713" width="82.5" customWidth="1"/>
+    <col min="8714" max="8714" width="16.5" customWidth="1"/>
+    <col min="8961" max="8961" width="27.5" customWidth="1"/>
+    <col min="8962" max="8964" width="9.1640625" customWidth="1"/>
+    <col min="8965" max="8966" width="27.5" customWidth="1"/>
+    <col min="8967" max="8968" width="13.75" customWidth="1"/>
+    <col min="8969" max="8969" width="82.5" customWidth="1"/>
+    <col min="8970" max="8970" width="16.5" customWidth="1"/>
+    <col min="9217" max="9217" width="27.5" customWidth="1"/>
+    <col min="9218" max="9220" width="9.1640625" customWidth="1"/>
+    <col min="9221" max="9222" width="27.5" customWidth="1"/>
+    <col min="9223" max="9224" width="13.75" customWidth="1"/>
+    <col min="9225" max="9225" width="82.5" customWidth="1"/>
+    <col min="9226" max="9226" width="16.5" customWidth="1"/>
+    <col min="9473" max="9473" width="27.5" customWidth="1"/>
+    <col min="9474" max="9476" width="9.1640625" customWidth="1"/>
+    <col min="9477" max="9478" width="27.5" customWidth="1"/>
+    <col min="9479" max="9480" width="13.75" customWidth="1"/>
+    <col min="9481" max="9481" width="82.5" customWidth="1"/>
+    <col min="9482" max="9482" width="16.5" customWidth="1"/>
+    <col min="9729" max="9729" width="27.5" customWidth="1"/>
+    <col min="9730" max="9732" width="9.1640625" customWidth="1"/>
+    <col min="9733" max="9734" width="27.5" customWidth="1"/>
+    <col min="9735" max="9736" width="13.75" customWidth="1"/>
+    <col min="9737" max="9737" width="82.5" customWidth="1"/>
+    <col min="9738" max="9738" width="16.5" customWidth="1"/>
+    <col min="9985" max="9985" width="27.5" customWidth="1"/>
+    <col min="9986" max="9988" width="9.1640625" customWidth="1"/>
+    <col min="9989" max="9990" width="27.5" customWidth="1"/>
+    <col min="9991" max="9992" width="13.75" customWidth="1"/>
+    <col min="9993" max="9993" width="82.5" customWidth="1"/>
+    <col min="9994" max="9994" width="16.5" customWidth="1"/>
+    <col min="10241" max="10241" width="27.5" customWidth="1"/>
+    <col min="10242" max="10244" width="9.1640625" customWidth="1"/>
+    <col min="10245" max="10246" width="27.5" customWidth="1"/>
+    <col min="10247" max="10248" width="13.75" customWidth="1"/>
+    <col min="10249" max="10249" width="82.5" customWidth="1"/>
+    <col min="10250" max="10250" width="16.5" customWidth="1"/>
+    <col min="10497" max="10497" width="27.5" customWidth="1"/>
+    <col min="10498" max="10500" width="9.1640625" customWidth="1"/>
+    <col min="10501" max="10502" width="27.5" customWidth="1"/>
+    <col min="10503" max="10504" width="13.75" customWidth="1"/>
+    <col min="10505" max="10505" width="82.5" customWidth="1"/>
+    <col min="10506" max="10506" width="16.5" customWidth="1"/>
+    <col min="10753" max="10753" width="27.5" customWidth="1"/>
+    <col min="10754" max="10756" width="9.1640625" customWidth="1"/>
+    <col min="10757" max="10758" width="27.5" customWidth="1"/>
+    <col min="10759" max="10760" width="13.75" customWidth="1"/>
+    <col min="10761" max="10761" width="82.5" customWidth="1"/>
+    <col min="10762" max="10762" width="16.5" customWidth="1"/>
+    <col min="11009" max="11009" width="27.5" customWidth="1"/>
+    <col min="11010" max="11012" width="9.1640625" customWidth="1"/>
+    <col min="11013" max="11014" width="27.5" customWidth="1"/>
+    <col min="11015" max="11016" width="13.75" customWidth="1"/>
+    <col min="11017" max="11017" width="82.5" customWidth="1"/>
+    <col min="11018" max="11018" width="16.5" customWidth="1"/>
+    <col min="11265" max="11265" width="27.5" customWidth="1"/>
+    <col min="11266" max="11268" width="9.1640625" customWidth="1"/>
+    <col min="11269" max="11270" width="27.5" customWidth="1"/>
+    <col min="11271" max="11272" width="13.75" customWidth="1"/>
+    <col min="11273" max="11273" width="82.5" customWidth="1"/>
+    <col min="11274" max="11274" width="16.5" customWidth="1"/>
+    <col min="11521" max="11521" width="27.5" customWidth="1"/>
+    <col min="11522" max="11524" width="9.1640625" customWidth="1"/>
+    <col min="11525" max="11526" width="27.5" customWidth="1"/>
+    <col min="11527" max="11528" width="13.75" customWidth="1"/>
+    <col min="11529" max="11529" width="82.5" customWidth="1"/>
+    <col min="11530" max="11530" width="16.5" customWidth="1"/>
+    <col min="11777" max="11777" width="27.5" customWidth="1"/>
+    <col min="11778" max="11780" width="9.1640625" customWidth="1"/>
+    <col min="11781" max="11782" width="27.5" customWidth="1"/>
+    <col min="11783" max="11784" width="13.75" customWidth="1"/>
+    <col min="11785" max="11785" width="82.5" customWidth="1"/>
+    <col min="11786" max="11786" width="16.5" customWidth="1"/>
+    <col min="12033" max="12033" width="27.5" customWidth="1"/>
+    <col min="12034" max="12036" width="9.1640625" customWidth="1"/>
+    <col min="12037" max="12038" width="27.5" customWidth="1"/>
+    <col min="12039" max="12040" width="13.75" customWidth="1"/>
+    <col min="12041" max="12041" width="82.5" customWidth="1"/>
+    <col min="12042" max="12042" width="16.5" customWidth="1"/>
+    <col min="12289" max="12289" width="27.5" customWidth="1"/>
+    <col min="12290" max="12292" width="9.1640625" customWidth="1"/>
+    <col min="12293" max="12294" width="27.5" customWidth="1"/>
+    <col min="12295" max="12296" width="13.75" customWidth="1"/>
+    <col min="12297" max="12297" width="82.5" customWidth="1"/>
+    <col min="12298" max="12298" width="16.5" customWidth="1"/>
+    <col min="12545" max="12545" width="27.5" customWidth="1"/>
+    <col min="12546" max="12548" width="9.1640625" customWidth="1"/>
+    <col min="12549" max="12550" width="27.5" customWidth="1"/>
+    <col min="12551" max="12552" width="13.75" customWidth="1"/>
+    <col min="12553" max="12553" width="82.5" customWidth="1"/>
+    <col min="12554" max="12554" width="16.5" customWidth="1"/>
+    <col min="12801" max="12801" width="27.5" customWidth="1"/>
+    <col min="12802" max="12804" width="9.1640625" customWidth="1"/>
+    <col min="12805" max="12806" width="27.5" customWidth="1"/>
+    <col min="12807" max="12808" width="13.75" customWidth="1"/>
+    <col min="12809" max="12809" width="82.5" customWidth="1"/>
+    <col min="12810" max="12810" width="16.5" customWidth="1"/>
+    <col min="13057" max="13057" width="27.5" customWidth="1"/>
+    <col min="13058" max="13060" width="9.1640625" customWidth="1"/>
+    <col min="13061" max="13062" width="27.5" customWidth="1"/>
+    <col min="13063" max="13064" width="13.75" customWidth="1"/>
+    <col min="13065" max="13065" width="82.5" customWidth="1"/>
+    <col min="13066" max="13066" width="16.5" customWidth="1"/>
+    <col min="13313" max="13313" width="27.5" customWidth="1"/>
+    <col min="13314" max="13316" width="9.1640625" customWidth="1"/>
+    <col min="13317" max="13318" width="27.5" customWidth="1"/>
+    <col min="13319" max="13320" width="13.75" customWidth="1"/>
+    <col min="13321" max="13321" width="82.5" customWidth="1"/>
+    <col min="13322" max="13322" width="16.5" customWidth="1"/>
+    <col min="13569" max="13569" width="27.5" customWidth="1"/>
+    <col min="13570" max="13572" width="9.1640625" customWidth="1"/>
+    <col min="13573" max="13574" width="27.5" customWidth="1"/>
+    <col min="13575" max="13576" width="13.75" customWidth="1"/>
+    <col min="13577" max="13577" width="82.5" customWidth="1"/>
+    <col min="13578" max="13578" width="16.5" customWidth="1"/>
+    <col min="13825" max="13825" width="27.5" customWidth="1"/>
+    <col min="13826" max="13828" width="9.1640625" customWidth="1"/>
+    <col min="13829" max="13830" width="27.5" customWidth="1"/>
+    <col min="13831" max="13832" width="13.75" customWidth="1"/>
+    <col min="13833" max="13833" width="82.5" customWidth="1"/>
+    <col min="13834" max="13834" width="16.5" customWidth="1"/>
+    <col min="14081" max="14081" width="27.5" customWidth="1"/>
+    <col min="14082" max="14084" width="9.1640625" customWidth="1"/>
+    <col min="14085" max="14086" width="27.5" customWidth="1"/>
+    <col min="14087" max="14088" width="13.75" customWidth="1"/>
+    <col min="14089" max="14089" width="82.5" customWidth="1"/>
+    <col min="14090" max="14090" width="16.5" customWidth="1"/>
+    <col min="14337" max="14337" width="27.5" customWidth="1"/>
+    <col min="14338" max="14340" width="9.1640625" customWidth="1"/>
+    <col min="14341" max="14342" width="27.5" customWidth="1"/>
+    <col min="14343" max="14344" width="13.75" customWidth="1"/>
+    <col min="14345" max="14345" width="82.5" customWidth="1"/>
+    <col min="14346" max="14346" width="16.5" customWidth="1"/>
+    <col min="14593" max="14593" width="27.5" customWidth="1"/>
+    <col min="14594" max="14596" width="9.1640625" customWidth="1"/>
+    <col min="14597" max="14598" width="27.5" customWidth="1"/>
+    <col min="14599" max="14600" width="13.75" customWidth="1"/>
+    <col min="14601" max="14601" width="82.5" customWidth="1"/>
+    <col min="14602" max="14602" width="16.5" customWidth="1"/>
+    <col min="14849" max="14849" width="27.5" customWidth="1"/>
+    <col min="14850" max="14852" width="9.1640625" customWidth="1"/>
+    <col min="14853" max="14854" width="27.5" customWidth="1"/>
+    <col min="14855" max="14856" width="13.75" customWidth="1"/>
+    <col min="14857" max="14857" width="82.5" customWidth="1"/>
+    <col min="14858" max="14858" width="16.5" customWidth="1"/>
+    <col min="15105" max="15105" width="27.5" customWidth="1"/>
+    <col min="15106" max="15108" width="9.1640625" customWidth="1"/>
+    <col min="15109" max="15110" width="27.5" customWidth="1"/>
+    <col min="15111" max="15112" width="13.75" customWidth="1"/>
+    <col min="15113" max="15113" width="82.5" customWidth="1"/>
+    <col min="15114" max="15114" width="16.5" customWidth="1"/>
+    <col min="15361" max="15361" width="27.5" customWidth="1"/>
+    <col min="15362" max="15364" width="9.1640625" customWidth="1"/>
+    <col min="15365" max="15366" width="27.5" customWidth="1"/>
+    <col min="15367" max="15368" width="13.75" customWidth="1"/>
+    <col min="15369" max="15369" width="82.5" customWidth="1"/>
+    <col min="15370" max="15370" width="16.5" customWidth="1"/>
+    <col min="15617" max="15617" width="27.5" customWidth="1"/>
+    <col min="15618" max="15620" width="9.1640625" customWidth="1"/>
+    <col min="15621" max="15622" width="27.5" customWidth="1"/>
+    <col min="15623" max="15624" width="13.75" customWidth="1"/>
+    <col min="15625" max="15625" width="82.5" customWidth="1"/>
+    <col min="15626" max="15626" width="16.5" customWidth="1"/>
+    <col min="15873" max="15873" width="27.5" customWidth="1"/>
+    <col min="15874" max="15876" width="9.1640625" customWidth="1"/>
+    <col min="15877" max="15878" width="27.5" customWidth="1"/>
+    <col min="15879" max="15880" width="13.75" customWidth="1"/>
+    <col min="15881" max="15881" width="82.5" customWidth="1"/>
+    <col min="15882" max="15882" width="16.5" customWidth="1"/>
+    <col min="16129" max="16129" width="27.5" customWidth="1"/>
+    <col min="16130" max="16132" width="9.1640625" customWidth="1"/>
+    <col min="16133" max="16134" width="27.5" customWidth="1"/>
+    <col min="16135" max="16136" width="13.75" customWidth="1"/>
+    <col min="16137" max="16137" width="82.5" customWidth="1"/>
+    <col min="16138" max="16138" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/unity-business-innovation/src/main/resources/template/rq.xlsx
+++ b/unity-business-innovation/src/main/resources/template/rq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\1\after\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294F6A5-88A8-41AC-8476-18CF3222A7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361ADEE7-D2B7-4DE1-A632-D45F3E02C916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,43 +28,54 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>九月需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>企业名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行业类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>企业规模</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>企业性质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>企业简介</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>联系方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,9 +89,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -94,32 +112,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -151,30 +154,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -850,93 +911,96 @@
     <col min="16138" max="16138" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/unity-business-innovation/src/main/resources/template/rq.xlsx
+++ b/unity-business-innovation/src/main/resources/template/rq.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\1\after\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361ADEE7-D2B7-4DE1-A632-D45F3E02C916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D25B21-E4DD-C042-813D-08680CF0ABFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,54 +28,54 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>九月需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>企业名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行业类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>企业规模</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>企业性质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>企业简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>联系方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,18 +89,32 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -112,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF05CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,18 +239,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,444 +535,444 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="8" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="82.5" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="257" max="257" width="27.5" customWidth="1"/>
     <col min="258" max="260" width="9.1640625" customWidth="1"/>
     <col min="261" max="262" width="27.5" customWidth="1"/>
-    <col min="263" max="264" width="13.75" customWidth="1"/>
+    <col min="263" max="264" width="13.6640625" customWidth="1"/>
     <col min="265" max="265" width="82.5" customWidth="1"/>
     <col min="266" max="266" width="16.5" customWidth="1"/>
     <col min="513" max="513" width="27.5" customWidth="1"/>
     <col min="514" max="516" width="9.1640625" customWidth="1"/>
     <col min="517" max="518" width="27.5" customWidth="1"/>
-    <col min="519" max="520" width="13.75" customWidth="1"/>
+    <col min="519" max="520" width="13.6640625" customWidth="1"/>
     <col min="521" max="521" width="82.5" customWidth="1"/>
     <col min="522" max="522" width="16.5" customWidth="1"/>
     <col min="769" max="769" width="27.5" customWidth="1"/>
     <col min="770" max="772" width="9.1640625" customWidth="1"/>
     <col min="773" max="774" width="27.5" customWidth="1"/>
-    <col min="775" max="776" width="13.75" customWidth="1"/>
+    <col min="775" max="776" width="13.6640625" customWidth="1"/>
     <col min="777" max="777" width="82.5" customWidth="1"/>
     <col min="778" max="778" width="16.5" customWidth="1"/>
     <col min="1025" max="1025" width="27.5" customWidth="1"/>
     <col min="1026" max="1028" width="9.1640625" customWidth="1"/>
     <col min="1029" max="1030" width="27.5" customWidth="1"/>
-    <col min="1031" max="1032" width="13.75" customWidth="1"/>
+    <col min="1031" max="1032" width="13.6640625" customWidth="1"/>
     <col min="1033" max="1033" width="82.5" customWidth="1"/>
     <col min="1034" max="1034" width="16.5" customWidth="1"/>
     <col min="1281" max="1281" width="27.5" customWidth="1"/>
     <col min="1282" max="1284" width="9.1640625" customWidth="1"/>
     <col min="1285" max="1286" width="27.5" customWidth="1"/>
-    <col min="1287" max="1288" width="13.75" customWidth="1"/>
+    <col min="1287" max="1288" width="13.6640625" customWidth="1"/>
     <col min="1289" max="1289" width="82.5" customWidth="1"/>
     <col min="1290" max="1290" width="16.5" customWidth="1"/>
     <col min="1537" max="1537" width="27.5" customWidth="1"/>
     <col min="1538" max="1540" width="9.1640625" customWidth="1"/>
     <col min="1541" max="1542" width="27.5" customWidth="1"/>
-    <col min="1543" max="1544" width="13.75" customWidth="1"/>
+    <col min="1543" max="1544" width="13.6640625" customWidth="1"/>
     <col min="1545" max="1545" width="82.5" customWidth="1"/>
     <col min="1546" max="1546" width="16.5" customWidth="1"/>
     <col min="1793" max="1793" width="27.5" customWidth="1"/>
     <col min="1794" max="1796" width="9.1640625" customWidth="1"/>
     <col min="1797" max="1798" width="27.5" customWidth="1"/>
-    <col min="1799" max="1800" width="13.75" customWidth="1"/>
+    <col min="1799" max="1800" width="13.6640625" customWidth="1"/>
     <col min="1801" max="1801" width="82.5" customWidth="1"/>
     <col min="1802" max="1802" width="16.5" customWidth="1"/>
     <col min="2049" max="2049" width="27.5" customWidth="1"/>
     <col min="2050" max="2052" width="9.1640625" customWidth="1"/>
     <col min="2053" max="2054" width="27.5" customWidth="1"/>
-    <col min="2055" max="2056" width="13.75" customWidth="1"/>
+    <col min="2055" max="2056" width="13.6640625" customWidth="1"/>
     <col min="2057" max="2057" width="82.5" customWidth="1"/>
     <col min="2058" max="2058" width="16.5" customWidth="1"/>
     <col min="2305" max="2305" width="27.5" customWidth="1"/>
     <col min="2306" max="2308" width="9.1640625" customWidth="1"/>
     <col min="2309" max="2310" width="27.5" customWidth="1"/>
-    <col min="2311" max="2312" width="13.75" customWidth="1"/>
+    <col min="2311" max="2312" width="13.6640625" customWidth="1"/>
     <col min="2313" max="2313" width="82.5" customWidth="1"/>
     <col min="2314" max="2314" width="16.5" customWidth="1"/>
     <col min="2561" max="2561" width="27.5" customWidth="1"/>
     <col min="2562" max="2564" width="9.1640625" customWidth="1"/>
     <col min="2565" max="2566" width="27.5" customWidth="1"/>
-    <col min="2567" max="2568" width="13.75" customWidth="1"/>
+    <col min="2567" max="2568" width="13.6640625" customWidth="1"/>
     <col min="2569" max="2569" width="82.5" customWidth="1"/>
     <col min="2570" max="2570" width="16.5" customWidth="1"/>
     <col min="2817" max="2817" width="27.5" customWidth="1"/>
     <col min="2818" max="2820" width="9.1640625" customWidth="1"/>
     <col min="2821" max="2822" width="27.5" customWidth="1"/>
-    <col min="2823" max="2824" width="13.75" customWidth="1"/>
+    <col min="2823" max="2824" width="13.6640625" customWidth="1"/>
     <col min="2825" max="2825" width="82.5" customWidth="1"/>
     <col min="2826" max="2826" width="16.5" customWidth="1"/>
     <col min="3073" max="3073" width="27.5" customWidth="1"/>
     <col min="3074" max="3076" width="9.1640625" customWidth="1"/>
     <col min="3077" max="3078" width="27.5" customWidth="1"/>
-    <col min="3079" max="3080" width="13.75" customWidth="1"/>
+    <col min="3079" max="3080" width="13.6640625" customWidth="1"/>
     <col min="3081" max="3081" width="82.5" customWidth="1"/>
     <col min="3082" max="3082" width="16.5" customWidth="1"/>
     <col min="3329" max="3329" width="27.5" customWidth="1"/>
     <col min="3330" max="3332" width="9.1640625" customWidth="1"/>
     <col min="3333" max="3334" width="27.5" customWidth="1"/>
-    <col min="3335" max="3336" width="13.75" customWidth="1"/>
+    <col min="3335" max="3336" width="13.6640625" customWidth="1"/>
     <col min="3337" max="3337" width="82.5" customWidth="1"/>
     <col min="3338" max="3338" width="16.5" customWidth="1"/>
     <col min="3585" max="3585" width="27.5" customWidth="1"/>
     <col min="3586" max="3588" width="9.1640625" customWidth="1"/>
     <col min="3589" max="3590" width="27.5" customWidth="1"/>
-    <col min="3591" max="3592" width="13.75" customWidth="1"/>
+    <col min="3591" max="3592" width="13.6640625" customWidth="1"/>
     <col min="3593" max="3593" width="82.5" customWidth="1"/>
     <col min="3594" max="3594" width="16.5" customWidth="1"/>
     <col min="3841" max="3841" width="27.5" customWidth="1"/>
     <col min="3842" max="3844" width="9.1640625" customWidth="1"/>
     <col min="3845" max="3846" width="27.5" customWidth="1"/>
-    <col min="3847" max="3848" width="13.75" customWidth="1"/>
+    <col min="3847" max="3848" width="13.6640625" customWidth="1"/>
     <col min="3849" max="3849" width="82.5" customWidth="1"/>
     <col min="3850" max="3850" width="16.5" customWidth="1"/>
     <col min="4097" max="4097" width="27.5" customWidth="1"/>
     <col min="4098" max="4100" width="9.1640625" customWidth="1"/>
     <col min="4101" max="4102" width="27.5" customWidth="1"/>
-    <col min="4103" max="4104" width="13.75" customWidth="1"/>
+    <col min="4103" max="4104" width="13.6640625" customWidth="1"/>
     <col min="4105" max="4105" width="82.5" customWidth="1"/>
     <col min="4106" max="4106" width="16.5" customWidth="1"/>
     <col min="4353" max="4353" width="27.5" customWidth="1"/>
     <col min="4354" max="4356" width="9.1640625" customWidth="1"/>
     <col min="4357" max="4358" width="27.5" customWidth="1"/>
-    <col min="4359" max="4360" width="13.75" customWidth="1"/>
+    <col min="4359" max="4360" width="13.6640625" customWidth="1"/>
     <col min="4361" max="4361" width="82.5" customWidth="1"/>
     <col min="4362" max="4362" width="16.5" customWidth="1"/>
     <col min="4609" max="4609" width="27.5" customWidth="1"/>
     <col min="4610" max="4612" width="9.1640625" customWidth="1"/>
     <col min="4613" max="4614" width="27.5" customWidth="1"/>
-    <col min="4615" max="4616" width="13.75" customWidth="1"/>
+    <col min="4615" max="4616" width="13.6640625" customWidth="1"/>
     <col min="4617" max="4617" width="82.5" customWidth="1"/>
     <col min="4618" max="4618" width="16.5" customWidth="1"/>
     <col min="4865" max="4865" width="27.5" customWidth="1"/>
     <col min="4866" max="4868" width="9.1640625" customWidth="1"/>
     <col min="4869" max="4870" width="27.5" customWidth="1"/>
-    <col min="4871" max="4872" width="13.75" customWidth="1"/>
+    <col min="4871" max="4872" width="13.6640625" customWidth="1"/>
     <col min="4873" max="4873" width="82.5" customWidth="1"/>
     <col min="4874" max="4874" width="16.5" customWidth="1"/>
     <col min="5121" max="5121" width="27.5" customWidth="1"/>
     <col min="5122" max="5124" width="9.1640625" customWidth="1"/>
     <col min="5125" max="5126" width="27.5" customWidth="1"/>
-    <col min="5127" max="5128" width="13.75" customWidth="1"/>
+    <col min="5127" max="5128" width="13.6640625" customWidth="1"/>
     <col min="5129" max="5129" width="82.5" customWidth="1"/>
     <col min="5130" max="5130" width="16.5" customWidth="1"/>
     <col min="5377" max="5377" width="27.5" customWidth="1"/>
     <col min="5378" max="5380" width="9.1640625" customWidth="1"/>
     <col min="5381" max="5382" width="27.5" customWidth="1"/>
-    <col min="5383" max="5384" width="13.75" customWidth="1"/>
+    <col min="5383" max="5384" width="13.6640625" customWidth="1"/>
     <col min="5385" max="5385" width="82.5" customWidth="1"/>
     <col min="5386" max="5386" width="16.5" customWidth="1"/>
     <col min="5633" max="5633" width="27.5" customWidth="1"/>
     <col min="5634" max="5636" width="9.1640625" customWidth="1"/>
     <col min="5637" max="5638" width="27.5" customWidth="1"/>
-    <col min="5639" max="5640" width="13.75" customWidth="1"/>
+    <col min="5639" max="5640" width="13.6640625" customWidth="1"/>
     <col min="5641" max="5641" width="82.5" customWidth="1"/>
     <col min="5642" max="5642" width="16.5" customWidth="1"/>
     <col min="5889" max="5889" width="27.5" customWidth="1"/>
     <col min="5890" max="5892" width="9.1640625" customWidth="1"/>
     <col min="5893" max="5894" width="27.5" customWidth="1"/>
-    <col min="5895" max="5896" width="13.75" customWidth="1"/>
+    <col min="5895" max="5896" width="13.6640625" customWidth="1"/>
     <col min="5897" max="5897" width="82.5" customWidth="1"/>
     <col min="5898" max="5898" width="16.5" customWidth="1"/>
     <col min="6145" max="6145" width="27.5" customWidth="1"/>
     <col min="6146" max="6148" width="9.1640625" customWidth="1"/>
     <col min="6149" max="6150" width="27.5" customWidth="1"/>
-    <col min="6151" max="6152" width="13.75" customWidth="1"/>
+    <col min="6151" max="6152" width="13.6640625" customWidth="1"/>
     <col min="6153" max="6153" width="82.5" customWidth="1"/>
     <col min="6154" max="6154" width="16.5" customWidth="1"/>
     <col min="6401" max="6401" width="27.5" customWidth="1"/>
     <col min="6402" max="6404" width="9.1640625" customWidth="1"/>
     <col min="6405" max="6406" width="27.5" customWidth="1"/>
-    <col min="6407" max="6408" width="13.75" customWidth="1"/>
+    <col min="6407" max="6408" width="13.6640625" customWidth="1"/>
     <col min="6409" max="6409" width="82.5" customWidth="1"/>
     <col min="6410" max="6410" width="16.5" customWidth="1"/>
     <col min="6657" max="6657" width="27.5" customWidth="1"/>
     <col min="6658" max="6660" width="9.1640625" customWidth="1"/>
     <col min="6661" max="6662" width="27.5" customWidth="1"/>
-    <col min="6663" max="6664" width="13.75" customWidth="1"/>
+    <col min="6663" max="6664" width="13.6640625" customWidth="1"/>
     <col min="6665" max="6665" width="82.5" customWidth="1"/>
     <col min="6666" max="6666" width="16.5" customWidth="1"/>
     <col min="6913" max="6913" width="27.5" customWidth="1"/>
     <col min="6914" max="6916" width="9.1640625" customWidth="1"/>
     <col min="6917" max="6918" width="27.5" customWidth="1"/>
-    <col min="6919" max="6920" width="13.75" customWidth="1"/>
+    <col min="6919" max="6920" width="13.6640625" customWidth="1"/>
     <col min="6921" max="6921" width="82.5" customWidth="1"/>
     <col min="6922" max="6922" width="16.5" customWidth="1"/>
     <col min="7169" max="7169" width="27.5" customWidth="1"/>
     <col min="7170" max="7172" width="9.1640625" customWidth="1"/>
     <col min="7173" max="7174" width="27.5" customWidth="1"/>
-    <col min="7175" max="7176" width="13.75" customWidth="1"/>
+    <col min="7175" max="7176" width="13.6640625" customWidth="1"/>
     <col min="7177" max="7177" width="82.5" customWidth="1"/>
     <col min="7178" max="7178" width="16.5" customWidth="1"/>
     <col min="7425" max="7425" width="27.5" customWidth="1"/>
     <col min="7426" max="7428" width="9.1640625" customWidth="1"/>
     <col min="7429" max="7430" width="27.5" customWidth="1"/>
-    <col min="7431" max="7432" width="13.75" customWidth="1"/>
+    <col min="7431" max="7432" width="13.6640625" customWidth="1"/>
     <col min="7433" max="7433" width="82.5" customWidth="1"/>
     <col min="7434" max="7434" width="16.5" customWidth="1"/>
     <col min="7681" max="7681" width="27.5" customWidth="1"/>
     <col min="7682" max="7684" width="9.1640625" customWidth="1"/>
     <col min="7685" max="7686" width="27.5" customWidth="1"/>
-    <col min="7687" max="7688" width="13.75" customWidth="1"/>
+    <col min="7687" max="7688" width="13.6640625" customWidth="1"/>
     <col min="7689" max="7689" width="82.5" customWidth="1"/>
     <col min="7690" max="7690" width="16.5" customWidth="1"/>
     <col min="7937" max="7937" width="27.5" customWidth="1"/>
     <col min="7938" max="7940" width="9.1640625" customWidth="1"/>
     <col min="7941" max="7942" width="27.5" customWidth="1"/>
-    <col min="7943" max="7944" width="13.75" customWidth="1"/>
+    <col min="7943" max="7944" width="13.6640625" customWidth="1"/>
     <col min="7945" max="7945" width="82.5" customWidth="1"/>
     <col min="7946" max="7946" width="16.5" customWidth="1"/>
     <col min="8193" max="8193" width="27.5" customWidth="1"/>
     <col min="8194" max="8196" width="9.1640625" customWidth="1"/>
     <col min="8197" max="8198" width="27.5" customWidth="1"/>
-    <col min="8199" max="8200" width="13.75" customWidth="1"/>
+    <col min="8199" max="8200" width="13.6640625" customWidth="1"/>
     <col min="8201" max="8201" width="82.5" customWidth="1"/>
     <col min="8202" max="8202" width="16.5" customWidth="1"/>
     <col min="8449" max="8449" width="27.5" customWidth="1"/>
     <col min="8450" max="8452" width="9.1640625" customWidth="1"/>
     <col min="8453" max="8454" width="27.5" customWidth="1"/>
-    <col min="8455" max="8456" width="13.75" customWidth="1"/>
+    <col min="8455" max="8456" width="13.6640625" customWidth="1"/>
     <col min="8457" max="8457" width="82.5" customWidth="1"/>
     <col min="8458" max="8458" width="16.5" customWidth="1"/>
     <col min="8705" max="8705" width="27.5" customWidth="1"/>
     <col min="8706" max="8708" width="9.1640625" customWidth="1"/>
     <col min="8709" max="8710" width="27.5" customWidth="1"/>
-    <col min="8711" max="8712" width="13.75" customWidth="1"/>
+    <col min="8711" max="8712" width="13.6640625" customWidth="1"/>
     <col min="8713" max="8713" width="82.5" customWidth="1"/>
     <col min="8714" max="8714" width="16.5" customWidth="1"/>
     <col min="8961" max="8961" width="27.5" customWidth="1"/>
     <col min="8962" max="8964" width="9.1640625" customWidth="1"/>
     <col min="8965" max="8966" width="27.5" customWidth="1"/>
-    <col min="8967" max="8968" width="13.75" customWidth="1"/>
+    <col min="8967" max="8968" width="13.6640625" customWidth="1"/>
     <col min="8969" max="8969" width="82.5" customWidth="1"/>
     <col min="8970" max="8970" width="16.5" customWidth="1"/>
     <col min="9217" max="9217" width="27.5" customWidth="1"/>
     <col min="9218" max="9220" width="9.1640625" customWidth="1"/>
     <col min="9221" max="9222" width="27.5" customWidth="1"/>
-    <col min="9223" max="9224" width="13.75" customWidth="1"/>
+    <col min="9223" max="9224" width="13.6640625" customWidth="1"/>
     <col min="9225" max="9225" width="82.5" customWidth="1"/>
     <col min="9226" max="9226" width="16.5" customWidth="1"/>
     <col min="9473" max="9473" width="27.5" customWidth="1"/>
     <col min="9474" max="9476" width="9.1640625" customWidth="1"/>
     <col min="9477" max="9478" width="27.5" customWidth="1"/>
-    <col min="9479" max="9480" width="13.75" customWidth="1"/>
+    <col min="9479" max="9480" width="13.6640625" customWidth="1"/>
     <col min="9481" max="9481" width="82.5" customWidth="1"/>
     <col min="9482" max="9482" width="16.5" customWidth="1"/>
     <col min="9729" max="9729" width="27.5" customWidth="1"/>
     <col min="9730" max="9732" width="9.1640625" customWidth="1"/>
     <col min="9733" max="9734" width="27.5" customWidth="1"/>
-    <col min="9735" max="9736" width="13.75" customWidth="1"/>
+    <col min="9735" max="9736" width="13.6640625" customWidth="1"/>
     <col min="9737" max="9737" width="82.5" customWidth="1"/>
     <col min="9738" max="9738" width="16.5" customWidth="1"/>
     <col min="9985" max="9985" width="27.5" customWidth="1"/>
     <col min="9986" max="9988" width="9.1640625" customWidth="1"/>
     <col min="9989" max="9990" width="27.5" customWidth="1"/>
-    <col min="9991" max="9992" width="13.75" customWidth="1"/>
+    <col min="9991" max="9992" width="13.6640625" customWidth="1"/>
     <col min="9993" max="9993" width="82.5" customWidth="1"/>
     <col min="9994" max="9994" width="16.5" customWidth="1"/>
     <col min="10241" max="10241" width="27.5" customWidth="1"/>
     <col min="10242" max="10244" width="9.1640625" customWidth="1"/>
     <col min="10245" max="10246" width="27.5" customWidth="1"/>
-    <col min="10247" max="10248" width="13.75" customWidth="1"/>
+    <col min="10247" max="10248" width="13.6640625" customWidth="1"/>
     <col min="10249" max="10249" width="82.5" customWidth="1"/>
     <col min="10250" max="10250" width="16.5" customWidth="1"/>
     <col min="10497" max="10497" width="27.5" customWidth="1"/>
     <col min="10498" max="10500" width="9.1640625" customWidth="1"/>
     <col min="10501" max="10502" width="27.5" customWidth="1"/>
-    <col min="10503" max="10504" width="13.75" customWidth="1"/>
+    <col min="10503" max="10504" width="13.6640625" customWidth="1"/>
     <col min="10505" max="10505" width="82.5" customWidth="1"/>
     <col min="10506" max="10506" width="16.5" customWidth="1"/>
     <col min="10753" max="10753" width="27.5" customWidth="1"/>
     <col min="10754" max="10756" width="9.1640625" customWidth="1"/>
     <col min="10757" max="10758" width="27.5" customWidth="1"/>
-    <col min="10759" max="10760" width="13.75" customWidth="1"/>
+    <col min="10759" max="10760" width="13.6640625" customWidth="1"/>
     <col min="10761" max="10761" width="82.5" customWidth="1"/>
     <col min="10762" max="10762" width="16.5" customWidth="1"/>
     <col min="11009" max="11009" width="27.5" customWidth="1"/>
     <col min="11010" max="11012" width="9.1640625" customWidth="1"/>
     <col min="11013" max="11014" width="27.5" customWidth="1"/>
-    <col min="11015" max="11016" width="13.75" customWidth="1"/>
+    <col min="11015" max="11016" width="13.6640625" customWidth="1"/>
     <col min="11017" max="11017" width="82.5" customWidth="1"/>
     <col min="11018" max="11018" width="16.5" customWidth="1"/>
     <col min="11265" max="11265" width="27.5" customWidth="1"/>
     <col min="11266" max="11268" width="9.1640625" customWidth="1"/>
     <col min="11269" max="11270" width="27.5" customWidth="1"/>
-    <col min="11271" max="11272" width="13.75" customWidth="1"/>
+    <col min="11271" max="11272" width="13.6640625" customWidth="1"/>
     <col min="11273" max="11273" width="82.5" customWidth="1"/>
     <col min="11274" max="11274" width="16.5" customWidth="1"/>
     <col min="11521" max="11521" width="27.5" customWidth="1"/>
     <col min="11522" max="11524" width="9.1640625" customWidth="1"/>
     <col min="11525" max="11526" width="27.5" customWidth="1"/>
-    <col min="11527" max="11528" width="13.75" customWidth="1"/>
+    <col min="11527" max="11528" width="13.6640625" customWidth="1"/>
     <col min="11529" max="11529" width="82.5" customWidth="1"/>
     <col min="11530" max="11530" width="16.5" customWidth="1"/>
     <col min="11777" max="11777" width="27.5" customWidth="1"/>
     <col min="11778" max="11780" width="9.1640625" customWidth="1"/>
     <col min="11781" max="11782" width="27.5" customWidth="1"/>
-    <col min="11783" max="11784" width="13.75" customWidth="1"/>
+    <col min="11783" max="11784" width="13.6640625" customWidth="1"/>
     <col min="11785" max="11785" width="82.5" customWidth="1"/>
     <col min="11786" max="11786" width="16.5" customWidth="1"/>
     <col min="12033" max="12033" width="27.5" customWidth="1"/>
     <col min="12034" max="12036" width="9.1640625" customWidth="1"/>
     <col min="12037" max="12038" width="27.5" customWidth="1"/>
-    <col min="12039" max="12040" width="13.75" customWidth="1"/>
+    <col min="12039" max="12040" width="13.6640625" customWidth="1"/>
     <col min="12041" max="12041" width="82.5" customWidth="1"/>
     <col min="12042" max="12042" width="16.5" customWidth="1"/>
     <col min="12289" max="12289" width="27.5" customWidth="1"/>
     <col min="12290" max="12292" width="9.1640625" customWidth="1"/>
     <col min="12293" max="12294" width="27.5" customWidth="1"/>
-    <col min="12295" max="12296" width="13.75" customWidth="1"/>
+    <col min="12295" max="12296" width="13.6640625" customWidth="1"/>
     <col min="12297" max="12297" width="82.5" customWidth="1"/>
     <col min="12298" max="12298" width="16.5" customWidth="1"/>
     <col min="12545" max="12545" width="27.5" customWidth="1"/>
     <col min="12546" max="12548" width="9.1640625" customWidth="1"/>
     <col min="12549" max="12550" width="27.5" customWidth="1"/>
-    <col min="12551" max="12552" width="13.75" customWidth="1"/>
+    <col min="12551" max="12552" width="13.6640625" customWidth="1"/>
     <col min="12553" max="12553" width="82.5" customWidth="1"/>
     <col min="12554" max="12554" width="16.5" customWidth="1"/>
     <col min="12801" max="12801" width="27.5" customWidth="1"/>
     <col min="12802" max="12804" width="9.1640625" customWidth="1"/>
     <col min="12805" max="12806" width="27.5" customWidth="1"/>
-    <col min="12807" max="12808" width="13.75" customWidth="1"/>
+    <col min="12807" max="12808" width="13.6640625" customWidth="1"/>
     <col min="12809" max="12809" width="82.5" customWidth="1"/>
     <col min="12810" max="12810" width="16.5" customWidth="1"/>
     <col min="13057" max="13057" width="27.5" customWidth="1"/>
     <col min="13058" max="13060" width="9.1640625" customWidth="1"/>
     <col min="13061" max="13062" width="27.5" customWidth="1"/>
-    <col min="13063" max="13064" width="13.75" customWidth="1"/>
+    <col min="13063" max="13064" width="13.6640625" customWidth="1"/>
     <col min="13065" max="13065" width="82.5" customWidth="1"/>
     <col min="13066" max="13066" width="16.5" customWidth="1"/>
     <col min="13313" max="13313" width="27.5" customWidth="1"/>
     <col min="13314" max="13316" width="9.1640625" customWidth="1"/>
     <col min="13317" max="13318" width="27.5" customWidth="1"/>
-    <col min="13319" max="13320" width="13.75" customWidth="1"/>
+    <col min="13319" max="13320" width="13.6640625" customWidth="1"/>
     <col min="13321" max="13321" width="82.5" customWidth="1"/>
     <col min="13322" max="13322" width="16.5" customWidth="1"/>
     <col min="13569" max="13569" width="27.5" customWidth="1"/>
     <col min="13570" max="13572" width="9.1640625" customWidth="1"/>
     <col min="13573" max="13574" width="27.5" customWidth="1"/>
-    <col min="13575" max="13576" width="13.75" customWidth="1"/>
+    <col min="13575" max="13576" width="13.6640625" customWidth="1"/>
     <col min="13577" max="13577" width="82.5" customWidth="1"/>
     <col min="13578" max="13578" width="16.5" customWidth="1"/>
     <col min="13825" max="13825" width="27.5" customWidth="1"/>
     <col min="13826" max="13828" width="9.1640625" customWidth="1"/>
     <col min="13829" max="13830" width="27.5" customWidth="1"/>
-    <col min="13831" max="13832" width="13.75" customWidth="1"/>
+    <col min="13831" max="13832" width="13.6640625" customWidth="1"/>
     <col min="13833" max="13833" width="82.5" customWidth="1"/>
     <col min="13834" max="13834" width="16.5" customWidth="1"/>
     <col min="14081" max="14081" width="27.5" customWidth="1"/>
     <col min="14082" max="14084" width="9.1640625" customWidth="1"/>
     <col min="14085" max="14086" width="27.5" customWidth="1"/>
-    <col min="14087" max="14088" width="13.75" customWidth="1"/>
+    <col min="14087" max="14088" width="13.6640625" customWidth="1"/>
     <col min="14089" max="14089" width="82.5" customWidth="1"/>
     <col min="14090" max="14090" width="16.5" customWidth="1"/>
     <col min="14337" max="14337" width="27.5" customWidth="1"/>
     <col min="14338" max="14340" width="9.1640625" customWidth="1"/>
     <col min="14341" max="14342" width="27.5" customWidth="1"/>
-    <col min="14343" max="14344" width="13.75" customWidth="1"/>
+    <col min="14343" max="14344" width="13.6640625" customWidth="1"/>
     <col min="14345" max="14345" width="82.5" customWidth="1"/>
     <col min="14346" max="14346" width="16.5" customWidth="1"/>
     <col min="14593" max="14593" width="27.5" customWidth="1"/>
     <col min="14594" max="14596" width="9.1640625" customWidth="1"/>
     <col min="14597" max="14598" width="27.5" customWidth="1"/>
-    <col min="14599" max="14600" width="13.75" customWidth="1"/>
+    <col min="14599" max="14600" width="13.6640625" customWidth="1"/>
     <col min="14601" max="14601" width="82.5" customWidth="1"/>
     <col min="14602" max="14602" width="16.5" customWidth="1"/>
     <col min="14849" max="14849" width="27.5" customWidth="1"/>
     <col min="14850" max="14852" width="9.1640625" customWidth="1"/>
     <col min="14853" max="14854" width="27.5" customWidth="1"/>
-    <col min="14855" max="14856" width="13.75" customWidth="1"/>
+    <col min="14855" max="14856" width="13.6640625" customWidth="1"/>
     <col min="14857" max="14857" width="82.5" customWidth="1"/>
     <col min="14858" max="14858" width="16.5" customWidth="1"/>
     <col min="15105" max="15105" width="27.5" customWidth="1"/>
     <col min="15106" max="15108" width="9.1640625" customWidth="1"/>
     <col min="15109" max="15110" width="27.5" customWidth="1"/>
-    <col min="15111" max="15112" width="13.75" customWidth="1"/>
+    <col min="15111" max="15112" width="13.6640625" customWidth="1"/>
     <col min="15113" max="15113" width="82.5" customWidth="1"/>
     <col min="15114" max="15114" width="16.5" customWidth="1"/>
     <col min="15361" max="15361" width="27.5" customWidth="1"/>
     <col min="15362" max="15364" width="9.1640625" customWidth="1"/>
     <col min="15365" max="15366" width="27.5" customWidth="1"/>
-    <col min="15367" max="15368" width="13.75" customWidth="1"/>
+    <col min="15367" max="15368" width="13.6640625" customWidth="1"/>
     <col min="15369" max="15369" width="82.5" customWidth="1"/>
     <col min="15370" max="15370" width="16.5" customWidth="1"/>
     <col min="15617" max="15617" width="27.5" customWidth="1"/>
     <col min="15618" max="15620" width="9.1640625" customWidth="1"/>
     <col min="15621" max="15622" width="27.5" customWidth="1"/>
-    <col min="15623" max="15624" width="13.75" customWidth="1"/>
+    <col min="15623" max="15624" width="13.6640625" customWidth="1"/>
     <col min="15625" max="15625" width="82.5" customWidth="1"/>
     <col min="15626" max="15626" width="16.5" customWidth="1"/>
     <col min="15873" max="15873" width="27.5" customWidth="1"/>
     <col min="15874" max="15876" width="9.1640625" customWidth="1"/>
     <col min="15877" max="15878" width="27.5" customWidth="1"/>
-    <col min="15879" max="15880" width="13.75" customWidth="1"/>
+    <col min="15879" max="15880" width="13.6640625" customWidth="1"/>
     <col min="15881" max="15881" width="82.5" customWidth="1"/>
     <col min="15882" max="15882" width="16.5" customWidth="1"/>
     <col min="16129" max="16129" width="27.5" customWidth="1"/>
     <col min="16130" max="16132" width="9.1640625" customWidth="1"/>
     <col min="16133" max="16134" width="27.5" customWidth="1"/>
-    <col min="16135" max="16136" width="13.75" customWidth="1"/>
+    <col min="16135" max="16136" width="13.6640625" customWidth="1"/>
     <col min="16137" max="16137" width="82.5" customWidth="1"/>
     <col min="16138" max="16138" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -969,7 +984,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -981,7 +996,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -993,14 +1008,14 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="E8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/unity-business-innovation/src/main/resources/template/rq.xlsx
+++ b/unity-business-innovation/src/main/resources/template/rq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D25B21-E4DD-C042-813D-08680CF0ABFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8BFA1B-1C06-2C4F-8D65-019CD851BB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,48 +183,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,19 +202,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -535,7 +492,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -927,48 +884,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/unity-business-innovation/src/main/resources/template/rq.xlsx
+++ b/unity-business-innovation/src/main/resources/template/rq.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8BFA1B-1C06-2C4F-8D65-019CD851BB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492E5C5-978B-674D-9124-4BD85605962F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -899,16 +899,16 @@
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
